--- a/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
+++ b/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2509074-2623-4727-9474-6AD05AB27130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89204C75-1F28-4D67-97EF-0B765910AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="717" firstSheet="2" activeTab="2" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
+    <workbookView xWindow="-28920" yWindow="-4515" windowWidth="29040" windowHeight="15720" tabRatio="717" activeTab="1" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple HTML" sheetId="8" r:id="rId1"/>
@@ -5199,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DC9515-EBA6-4A93-B19C-A61B30490E80}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5291,9 +5291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D520B1AA-033F-4DCB-9266-5BA90AE5A7CA}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
+++ b/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89204C75-1F28-4D67-97EF-0B765910AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C36E5-F00F-49A6-84B0-E7A2BA6907CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4515" windowWidth="29040" windowHeight="15720" tabRatio="717" activeTab="1" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="717" activeTab="6" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple HTML" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="352">
   <si>
     <t>Concept</t>
   </si>
@@ -2578,6 +2578,41 @@
         "b c d e";
 }
 You create a grid, and you can adjust the elements within a grid-template-area. These end up becoming a a a a, where a take up the entirety of the first row, and then b c d e, where the other four elements take up the bottom row.</t>
+  </si>
+  <si>
+    <t>Another one is the confirm("text…"), which returns a boolean positive or negative depending on whether it was selected properly or not</t>
+  </si>
+  <si>
+    <t>function addTask() {
+    var taskInput = document.getElementById("taskInput");
+    var taskList = document.getElementById("taskList");
+    var taskText = taskInput.value.trim();
+    if (taskText === "") {alert("Please enter a task!"); return;}
+    var listItem = document.createElement("li");
+    listItem.textContent = taskText;
+    listItem.onclick = function () {
+        this.classList.toggle("highlight");
+        console.log(this.classList);
+    };
+    listItem.ondblclick = function () {
+        var confirmDelete = confirm("Are you sure you want to delete this task?");
+        if (confirmDelete) {this.remove();}};
+    taskList.appendChild(listItem);
+    taskInput.value = "";
+}</t>
+  </si>
+  <si>
+    <t>Creating html elements within functions, providing them with functions, then adding them onto the HTML itself</t>
+  </si>
+  <si>
+    <t>This is hour HTML code:
+    &lt;input type="text" id="taskInput" placeholder="Enter a task"&gt;
+    &lt;button onclick="addTask()"&gt;Add&lt;/button&gt;
+    &lt;ol id="taskList"&gt;
+    &lt;/ol&gt;
+When the user clicks on the button with the addTask() function, it triggers the JS file code. Within the addTask() function within JS, we are actually doing something quite interesting. After we've done our checks as to whether the input is allowed, we're then creating a new element, giving it a few methods which are run based on a specific input, and then we're appending it, right at the end.
+With the code like how it is on the left, it's as if we're creating an object from a class ("li"), we're giving it a couple of methods and fields, and then we're adding it to a list (the list in this case being an "ol" html list, with a visual element.
+This method of doing things also means that when we need the item to refer to itself using the this keyword, it's much easier. The method has already been created. This method of item creation will probably have to become the norm as JS programming goes further.</t>
   </si>
 </sst>
 </file>
@@ -4098,8 +4133,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B0AE499-2931-4BB3-BCFD-146111CA6BCE}" name="Table8" displayName="Table8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A1:D2" xr:uid="{8B0AE499-2931-4BB3-BCFD-146111CA6BCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8B0AE499-2931-4BB3-BCFD-146111CA6BCE}" name="Table8" displayName="Table8" ref="A1:D3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+  <autoFilter ref="A1:D3" xr:uid="{8B0AE499-2931-4BB3-BCFD-146111CA6BCE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{446F590E-B320-4152-B846-5D104AD80C7F}" name="Concept" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{E3B5734C-FD0B-4690-BA0B-DD261496DF8C}" name="Code" dataDxfId="37"/>
@@ -5199,7 +5234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DC9515-EBA6-4A93-B19C-A61B30490E80}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5440,7 +5475,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5905,10 +5940,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E3281-67A4-4428-A5E2-A9BEAE583877}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5945,6 +5980,17 @@
         <v>345</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="330">
+      <c r="A3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5957,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B58A76-707B-4532-B12E-5EA6CA67203C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5998,7 +6044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="4" t="s">
         <v>125</v>
       </c>
@@ -6007,6 +6053,9 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>127</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">

--- a/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
+++ b/HTML, CSS, JavaScript and TypeScript Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C36E5-F00F-49A6-84B0-E7A2BA6907CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE427F-1838-4070-87B9-FFADFBF55D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="717" activeTab="6" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
+    <workbookView xWindow="16035" yWindow="0" windowWidth="12870" windowHeight="15585" tabRatio="717" firstSheet="6" activeTab="7" xr2:uid="{8E0EA162-069A-4055-969A-D163D2934874}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple HTML" sheetId="8" r:id="rId1"/>
@@ -4173,9 +4173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4213,7 +4213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4319,7 +4319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4461,7 +4461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5548,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1248A541-ED2E-47A6-9221-52FC18FFA65E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5824,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC9ADD3-4E6A-4879-8F69-C1769BD09FC4}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5942,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E3281-67A4-4428-A5E2-A9BEAE583877}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6003,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B58A76-707B-4532-B12E-5EA6CA67203C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
